--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cdh1-Itgae.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cdh1-Itgae.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +94,10 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>M2</t>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.258901400101952</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H2">
-        <v>0.258901400101952</v>
+        <v>1.235287</v>
       </c>
       <c r="I2">
-        <v>0.5582578267846999</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J2">
-        <v>0.5582578267846999</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.371832964579527</v>
+        <v>0.3719945</v>
       </c>
       <c r="N2">
-        <v>0.371832964579527</v>
+        <v>0.743989</v>
       </c>
       <c r="O2">
-        <v>0.4281069416346309</v>
+        <v>0.3853427071519593</v>
       </c>
       <c r="P2">
-        <v>0.4281069416346309</v>
+        <v>0.2947558046754351</v>
       </c>
       <c r="Q2">
-        <v>0.09626807513369907</v>
+        <v>0.1531733233071667</v>
       </c>
       <c r="R2">
-        <v>0.09626807513369907</v>
+        <v>0.919039939843</v>
       </c>
       <c r="S2">
-        <v>0.2389940508683934</v>
+        <v>0.1314733250656622</v>
       </c>
       <c r="T2">
-        <v>0.2389940508683934</v>
+        <v>0.106744551542061</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.258901400101952</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H3">
-        <v>0.258901400101952</v>
+        <v>1.235287</v>
       </c>
       <c r="I3">
-        <v>0.5582578267846999</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J3">
-        <v>0.5582578267846999</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.193906816529397</v>
+        <v>0.04722000000000001</v>
       </c>
       <c r="N3">
-        <v>0.193906816529397</v>
+        <v>0.14166</v>
       </c>
       <c r="O3">
-        <v>0.2232530789204759</v>
+        <v>0.04891438618505253</v>
       </c>
       <c r="P3">
-        <v>0.2232530789204759</v>
+        <v>0.0561232858151426</v>
       </c>
       <c r="Q3">
-        <v>0.05020274628877321</v>
+        <v>0.01944341738</v>
       </c>
       <c r="R3">
-        <v>0.05020274628877321</v>
+        <v>0.17499075642</v>
       </c>
       <c r="S3">
-        <v>0.124632778661138</v>
+        <v>0.01668887687748225</v>
       </c>
       <c r="T3">
-        <v>0.124632778661138</v>
+        <v>0.02032480745205691</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,185 +652,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.258901400101952</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H4">
-        <v>0.258901400101952</v>
+        <v>1.235287</v>
       </c>
       <c r="I4">
-        <v>0.5582578267846999</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J4">
-        <v>0.5582578267846999</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.302811808266772</v>
+        <v>0.194442</v>
       </c>
       <c r="N4">
-        <v>0.302811808266772</v>
+        <v>0.583326</v>
       </c>
       <c r="O4">
-        <v>0.3486399794448932</v>
+        <v>0.2014191249172805</v>
       </c>
       <c r="P4">
-        <v>0.3486399794448932</v>
+        <v>0.231103853038288</v>
       </c>
       <c r="Q4">
-        <v>0.07839840112767112</v>
+        <v>0.080063891618</v>
       </c>
       <c r="R4">
-        <v>0.07839840112767112</v>
+        <v>0.7205750245620001</v>
       </c>
       <c r="S4">
-        <v>0.1946309972551686</v>
+        <v>0.06872127483717499</v>
       </c>
       <c r="T4">
-        <v>0.1946309972551686</v>
+        <v>0.08369327002526153</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.204865317855414</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H5">
-        <v>0.204865317855414</v>
+        <v>1.235287</v>
       </c>
       <c r="I5">
-        <v>0.4417421732153001</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J5">
-        <v>0.4417421732153001</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.371832964579527</v>
+        <v>0.305672</v>
       </c>
       <c r="N5">
-        <v>0.371832964579527</v>
+        <v>0.9170160000000001</v>
       </c>
       <c r="O5">
-        <v>0.4281069416346309</v>
+        <v>0.3166403696306094</v>
       </c>
       <c r="P5">
-        <v>0.4281069416346309</v>
+        <v>0.3633061631022081</v>
       </c>
       <c r="Q5">
-        <v>0.0761756784777057</v>
+        <v>0.1258642159546667</v>
       </c>
       <c r="R5">
-        <v>0.0761756784777057</v>
+        <v>1.132777943592</v>
       </c>
       <c r="S5">
-        <v>0.1891128907662375</v>
+        <v>0.1080330871006725</v>
       </c>
       <c r="T5">
-        <v>0.1891128907662375</v>
+        <v>0.1315697700865129</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.204865317855414</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H6">
-        <v>0.204865317855414</v>
+        <v>1.235287</v>
       </c>
       <c r="I6">
-        <v>0.4417421732153001</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J6">
-        <v>0.4417421732153001</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.193906816529397</v>
+        <v>0.04603166666666667</v>
       </c>
       <c r="N6">
-        <v>0.193906816529397</v>
+        <v>0.138095</v>
       </c>
       <c r="O6">
-        <v>0.2232530789204759</v>
+        <v>0.04768341211509831</v>
       </c>
       <c r="P6">
-        <v>0.2232530789204759</v>
+        <v>0.05471089336892642</v>
       </c>
       <c r="Q6">
-        <v>0.03972478160262637</v>
+        <v>0.01895410647388889</v>
       </c>
       <c r="R6">
-        <v>0.03972478160262637</v>
+        <v>0.170586958265</v>
       </c>
       <c r="S6">
-        <v>0.09862030025933793</v>
+        <v>0.01626888643509749</v>
       </c>
       <c r="T6">
-        <v>0.09862030025933793</v>
+        <v>0.01981331558020471</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +838,619 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.204865317855414</v>
+        <v>0.5855440000000001</v>
       </c>
       <c r="H7">
-        <v>0.204865317855414</v>
+        <v>1.756632</v>
       </c>
       <c r="I7">
-        <v>0.4417421732153001</v>
+        <v>0.4851805936269489</v>
       </c>
       <c r="J7">
-        <v>0.4417421732153001</v>
+        <v>0.5149870038950204</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.302811808266772</v>
+        <v>0.3719945</v>
       </c>
       <c r="N7">
-        <v>0.302811808266772</v>
+        <v>0.743989</v>
       </c>
       <c r="O7">
-        <v>0.3486399794448932</v>
+        <v>0.3853427071519593</v>
       </c>
       <c r="P7">
-        <v>0.3486399794448932</v>
+        <v>0.2947558046754351</v>
       </c>
       <c r="Q7">
-        <v>0.06203563735094493</v>
+        <v>0.217819147508</v>
       </c>
       <c r="R7">
-        <v>0.06203563735094493</v>
+        <v>1.306914885048</v>
       </c>
       <c r="S7">
-        <v>0.1540089821897247</v>
+        <v>0.1869608034058032</v>
       </c>
       <c r="T7">
-        <v>0.1540089821897247</v>
+        <v>0.1517954087304682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.5855440000000001</v>
+      </c>
+      <c r="H8">
+        <v>1.756632</v>
+      </c>
+      <c r="I8">
+        <v>0.4851805936269489</v>
+      </c>
+      <c r="J8">
+        <v>0.5149870038950204</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.04722000000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.14166</v>
+      </c>
+      <c r="O8">
+        <v>0.04891438618505253</v>
+      </c>
+      <c r="P8">
+        <v>0.0561232858151426</v>
+      </c>
+      <c r="Q8">
+        <v>0.02764938768000001</v>
+      </c>
+      <c r="R8">
+        <v>0.24884448912</v>
+      </c>
+      <c r="S8">
+        <v>0.02373231092616162</v>
+      </c>
+      <c r="T8">
+        <v>0.02890276281068418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.5855440000000001</v>
+      </c>
+      <c r="H9">
+        <v>1.756632</v>
+      </c>
+      <c r="I9">
+        <v>0.4851805936269489</v>
+      </c>
+      <c r="J9">
+        <v>0.5149870038950204</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.194442</v>
+      </c>
+      <c r="N9">
+        <v>0.583326</v>
+      </c>
+      <c r="O9">
+        <v>0.2014191249172805</v>
+      </c>
+      <c r="P9">
+        <v>0.231103853038288</v>
+      </c>
+      <c r="Q9">
+        <v>0.113854346448</v>
+      </c>
+      <c r="R9">
+        <v>1.024689118032</v>
+      </c>
+      <c r="S9">
+        <v>0.09772465059518672</v>
+      </c>
+      <c r="T9">
+        <v>0.119015480864783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.5855440000000001</v>
+      </c>
+      <c r="H10">
+        <v>1.756632</v>
+      </c>
+      <c r="I10">
+        <v>0.4851805936269489</v>
+      </c>
+      <c r="J10">
+        <v>0.5149870038950204</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.305672</v>
+      </c>
+      <c r="N10">
+        <v>0.9170160000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.3166403696306094</v>
+      </c>
+      <c r="P10">
+        <v>0.3633061631022081</v>
+      </c>
+      <c r="Q10">
+        <v>0.178984405568</v>
+      </c>
+      <c r="R10">
+        <v>1.610859650112</v>
+      </c>
+      <c r="S10">
+        <v>0.1536277625036356</v>
+      </c>
+      <c r="T10">
+        <v>0.1870979524326018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.5855440000000001</v>
+      </c>
+      <c r="H11">
+        <v>1.756632</v>
+      </c>
+      <c r="I11">
+        <v>0.4851805936269489</v>
+      </c>
+      <c r="J11">
+        <v>0.5149870038950204</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.04603166666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.138095</v>
+      </c>
+      <c r="O11">
+        <v>0.04768341211509831</v>
+      </c>
+      <c r="P11">
+        <v>0.05471089336892642</v>
+      </c>
+      <c r="Q11">
+        <v>0.02695356622666667</v>
+      </c>
+      <c r="R11">
+        <v>0.24258209604</v>
+      </c>
+      <c r="S11">
+        <v>0.02313506619616185</v>
+      </c>
+      <c r="T11">
+        <v>0.02817539905648336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.2095515</v>
+      </c>
+      <c r="H12">
+        <v>0.419103</v>
+      </c>
+      <c r="I12">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J12">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.3719945</v>
+      </c>
+      <c r="N12">
+        <v>0.743989</v>
+      </c>
+      <c r="O12">
+        <v>0.3853427071519593</v>
+      </c>
+      <c r="P12">
+        <v>0.2947558046754351</v>
+      </c>
+      <c r="Q12">
+        <v>0.07795200546675</v>
+      </c>
+      <c r="R12">
+        <v>0.311808021867</v>
+      </c>
+      <c r="S12">
+        <v>0.06690857868049396</v>
+      </c>
+      <c r="T12">
+        <v>0.03621584440290589</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2095515</v>
+      </c>
+      <c r="H13">
+        <v>0.419103</v>
+      </c>
+      <c r="I13">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J13">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.04722000000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.14166</v>
+      </c>
+      <c r="O13">
+        <v>0.04891438618505253</v>
+      </c>
+      <c r="P13">
+        <v>0.0561232858151426</v>
+      </c>
+      <c r="Q13">
+        <v>0.009895021830000001</v>
+      </c>
+      <c r="R13">
+        <v>0.05937013098</v>
+      </c>
+      <c r="S13">
+        <v>0.008493198381408664</v>
+      </c>
+      <c r="T13">
+        <v>0.006895715552401512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2095515</v>
+      </c>
+      <c r="H14">
+        <v>0.419103</v>
+      </c>
+      <c r="I14">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J14">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.194442</v>
+      </c>
+      <c r="N14">
+        <v>0.583326</v>
+      </c>
+      <c r="O14">
+        <v>0.2014191249172805</v>
+      </c>
+      <c r="P14">
+        <v>0.231103853038288</v>
+      </c>
+      <c r="Q14">
+        <v>0.040745612763</v>
+      </c>
+      <c r="R14">
+        <v>0.244473676578</v>
+      </c>
+      <c r="S14">
+        <v>0.03497319948491875</v>
+      </c>
+      <c r="T14">
+        <v>0.02839510214824343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2095515</v>
+      </c>
+      <c r="H15">
+        <v>0.419103</v>
+      </c>
+      <c r="I15">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J15">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.305672</v>
+      </c>
+      <c r="N15">
+        <v>0.9170160000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.3166403696306094</v>
+      </c>
+      <c r="P15">
+        <v>0.3633061631022081</v>
+      </c>
+      <c r="Q15">
+        <v>0.064054026108</v>
+      </c>
+      <c r="R15">
+        <v>0.384324156648</v>
+      </c>
+      <c r="S15">
+        <v>0.05497952002630133</v>
+      </c>
+      <c r="T15">
+        <v>0.0446384405830935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2095515</v>
+      </c>
+      <c r="H16">
+        <v>0.419103</v>
+      </c>
+      <c r="I16">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J16">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.04603166666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.138095</v>
+      </c>
+      <c r="O16">
+        <v>0.04768341211509831</v>
+      </c>
+      <c r="P16">
+        <v>0.05471089336892642</v>
+      </c>
+      <c r="Q16">
+        <v>0.0096460047975</v>
+      </c>
+      <c r="R16">
+        <v>0.057876028785</v>
+      </c>
+      <c r="S16">
+        <v>0.008279459483838975</v>
+      </c>
+      <c r="T16">
+        <v>0.006722178732238364</v>
       </c>
     </row>
   </sheetData>
